--- a/Assets/Excel/MonsterIdInfo.xlsx
+++ b/Assets/Excel/MonsterIdInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFB85DC-3171-47B1-B994-56A60813724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895F6DA5-9DCE-458E-9A8A-38F56DBC7251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="14892" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,6 +428,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
